--- a/备孕相关知识提要.xlsx
+++ b/备孕相关知识提要.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4050C71C-67EE-4F6C-888C-0D8C589AE3F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -25,25 +21,30 @@
     <sheet name="《月经不调》黄荷凤" sheetId="19" r:id="rId11"/>
     <sheet name=" " sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="754">
   <si>
     <t>病毒四项</t>
   </si>
@@ -4201,11 +4202,91 @@
     <t>内膜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>七月初三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月初四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月初五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月初六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月初七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月初八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月初九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月初十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上6点北京南出发 中午12点半到南京南 安顿后游大报恩寺 秦淮河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利大剧院 牛首山 未来火车号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石湫影视基地 石臼湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溧阳一号公路神女湖 佘村水库采石场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山植物园 桦墅村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱情隧道 四方当代美术馆 国际画家村 收拾出发到扬州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟书阁 皮市街 绿洋湖湿地公园 启程回京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4493,7 +4574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4583,6 +4664,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4862,24 +4944,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5138,7 +5220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -5153,7 +5235,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -5168,7 +5250,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -5179,7 +5261,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5642,17 +5724,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="161.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="161.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5705,7 +5787,7 @@
       </c>
       <c r="C8" s="31"/>
     </row>
-    <row r="10" spans="1:3" ht="53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>449</v>
       </c>
@@ -5716,7 +5798,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>457</v>
       </c>
@@ -5727,7 +5809,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>454</v>
       </c>
@@ -5737,7 +5819,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="32.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>456</v>
       </c>
@@ -5747,12 +5829,12 @@
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>460</v>
       </c>
@@ -5768,7 +5850,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>464</v>
       </c>
@@ -5779,7 +5861,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>640</v>
       </c>
@@ -5798,16 +5880,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="204.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="204.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -5821,7 +5903,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>605</v>
       </c>
@@ -5843,7 +5925,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>613</v>
       </c>
@@ -5864,37 +5946,37 @@
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="114" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C13" s="32" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="57" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
         <v>623</v>
       </c>
@@ -5909,27 +5991,27 @@
         <v>625</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="90" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" ht="85.5" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" ht="57" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="30" spans="3:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="32" spans="3:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
         <v>630</v>
       </c>
@@ -5939,32 +6021,32 @@
         <v>631</v>
       </c>
     </row>
-    <row r="36" spans="3:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="38" spans="3:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" ht="71.25" x14ac:dyDescent="0.2">
       <c r="C38" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="40" spans="3:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" ht="57" x14ac:dyDescent="0.2">
       <c r="C40" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="42" spans="3:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" ht="57" x14ac:dyDescent="0.2">
       <c r="C42" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="43" spans="3:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C43" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="44" spans="3:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" ht="71.25" x14ac:dyDescent="0.2">
       <c r="C44" s="3" t="s">
         <v>637</v>
       </c>
@@ -5976,24 +6058,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="24">
         <v>43453</v>
       </c>
@@ -6016,7 +6098,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
         <v>43475</v>
       </c>
@@ -6047,22 +6129,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="115" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -6089,7 +6171,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
       <c r="C3" t="s">
@@ -6099,7 +6181,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
       <c r="C4" t="s">
@@ -6115,7 +6197,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="47" t="s">
         <v>476</v>
@@ -6130,7 +6212,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="47"/>
       <c r="C6" t="s">
@@ -6141,7 +6223,7 @@
       </c>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="47"/>
       <c r="C7" t="s">
@@ -6152,7 +6234,7 @@
       </c>
       <c r="F7" s="43"/>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
       <c r="C8" t="s">
@@ -6165,7 +6247,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="47" t="s">
         <v>477</v>
@@ -6177,7 +6259,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="106" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="100.5" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="47"/>
       <c r="C10" t="s">
@@ -6187,7 +6269,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="47"/>
       <c r="C11" t="s">
@@ -6197,7 +6279,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="47"/>
       <c r="C12" t="s">
@@ -6213,7 +6295,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="48" t="s">
         <v>478</v>
@@ -6227,7 +6309,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
         <v>558</v>
       </c>
@@ -6241,7 +6323,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="48"/>
       <c r="C15" t="s">
@@ -6253,7 +6335,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" t="s">
@@ -6269,7 +6351,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="76" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="48" t="s">
         <v>479</v>
@@ -6283,7 +6365,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" t="s">
@@ -6295,7 +6377,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
       <c r="C19" t="s">
@@ -6307,7 +6389,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" t="s">
@@ -6338,7 +6420,7 @@
       <c r="E21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" t="s">
@@ -6360,7 +6442,7 @@
       <c r="E23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" t="s">
@@ -6370,7 +6452,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="47" t="s">
         <v>552</v>
@@ -6382,7 +6464,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="47"/>
       <c r="C26" t="s">
@@ -6396,7 +6478,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="47"/>
       <c r="C27" t="s">
@@ -6408,7 +6490,7 @@
       <c r="F27" s="41"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="86.25" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
         <v>557</v>
       </c>
@@ -6423,7 +6505,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="47" t="s">
         <v>485</v>
@@ -6436,7 +6518,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="47"/>
       <c r="C30" t="s">
@@ -6452,7 +6534,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="47"/>
       <c r="C31" t="s">
@@ -6464,7 +6546,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="47"/>
       <c r="C32" t="s">
@@ -6483,7 +6565,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="61" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" t="s">
@@ -6507,7 +6589,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="48" t="s">
         <v>487</v>
@@ -6519,7 +6601,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="48"/>
       <c r="C38" t="s">
@@ -6569,25 +6651,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -6921,7 +7003,7 @@
         <v>3121982882</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="F18" t="s">
@@ -6940,7 +7022,7 @@
         <v>3009207980</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="F19" t="s">
         <v>677</v>
@@ -6958,7 +7040,7 @@
         <v>3031936895</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="F20" t="s">
         <v>674</v>
@@ -7129,20 +7211,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>202</v>
       </c>
@@ -7150,7 +7232,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>203</v>
       </c>
@@ -7158,7 +7240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>204</v>
       </c>
@@ -7166,7 +7248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>205</v>
       </c>
@@ -7174,11 +7256,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>211</v>
       </c>
@@ -7186,18 +7268,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>206</v>
       </c>
@@ -7205,7 +7287,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>207</v>
       </c>
@@ -7223,20 +7305,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.6640625" customWidth="1"/>
+    <col min="4" max="4" width="113.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7253,7 +7335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>52</v>
       </c>
@@ -7434,21 +7516,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -7823,21 +7905,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -8250,32 +8332,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="17" width="5.1640625" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="5.125" customWidth="1"/>
+    <col min="18" max="18" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -10025,30 +10107,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="61.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10455,6 +10538,147 @@
       </c>
       <c r="E30" t="s">
         <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
+        <v>43680</v>
+      </c>
+      <c r="B33" t="s">
+        <v>734</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>735</v>
+      </c>
+      <c r="E33" t="s">
+        <v>747</v>
+      </c>
+      <c r="F33">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
+        <v>43681</v>
+      </c>
+      <c r="B34" t="s">
+        <v>736</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>742</v>
+      </c>
+      <c r="E34" t="s">
+        <v>748</v>
+      </c>
+      <c r="F34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="20">
+        <v>43682</v>
+      </c>
+      <c r="B35" t="s">
+        <v>737</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="E35" t="s">
+        <v>749</v>
+      </c>
+      <c r="F35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>43683</v>
+      </c>
+      <c r="B36" t="s">
+        <v>738</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="E36" t="s">
+        <v>750</v>
+      </c>
+      <c r="F36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
+        <v>43684</v>
+      </c>
+      <c r="B37" t="s">
+        <v>739</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="E37" t="s">
+        <v>751</v>
+      </c>
+      <c r="F37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>43685</v>
+      </c>
+      <c r="B38" t="s">
+        <v>740</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="E38" t="s">
+        <v>752</v>
+      </c>
+      <c r="F38">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
+        <v>43686</v>
+      </c>
+      <c r="B39" t="s">
+        <v>741</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="E39" t="s">
+        <v>753</v>
+      </c>
+      <c r="F39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="22">
+        <v>43687</v>
+      </c>
+      <c r="B40" t="s">
+        <v>745</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="22">
+        <v>43688</v>
+      </c>
+      <c r="B41" t="s">
+        <v>746</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
